--- a/biology/Médecine/John_Walton_(médecin)/John_Walton_(médecin).xlsx
+++ b/biology/Médecine/John_Walton_(médecin)/John_Walton_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Walton_(m%C3%A9decin)</t>
+          <t>John_Walton_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Nicholas Walton, baron Walton de Detchant, né le 16 septembre 1922 et mort le 21 avril 2016, est un médecin neurologue, homme politique et pair à vie du Royaume-Uni.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Walton_(m%C3%A9decin)</t>
+          <t>John_Walton_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est diplômé de la faculté de médecine de Newcastle (qui fait alors partie de l'université de Durham. Walton est président de la British Medical Association (BMA) de 1980 à 1982, du General Medical Council (GMC) de 1982 à 1989 et de la Royal Society of Medicine de 1984 à 1986.
 Il est aussi nommé directeur adjoint du Green College d'Oxford en 1983, où il reste jusqu'en 1989. En 2008, Green College fusionne avec Templeton College pour devenir le Green Templeton College, situé sur l'ancien site du Green College.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_Walton_(m%C3%A9decin)</t>
+          <t>John_Walton_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Armoiries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Devise (en français) : « Dieu défend le droit »
 </t>
